--- a/podatki/BDP_pc.xlsx
+++ b/podatki/BDP_pc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenart\Desktop\faks\R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenart\Desktop\APPR-2019-20\podatki\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,9 +33,6 @@
     <t>Denmark</t>
   </si>
   <si>
-    <t>Germany (until 1990 former territory of the FRG)</t>
-  </si>
-  <si>
     <t>Estonia</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Germany</t>
   </si>
 </sst>
 </file>
@@ -542,48 +542,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -740,7 +740,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B6" s="3">
         <v>32320</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4">
         <v>12640</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3">
         <v>38600</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4">
         <v>22560</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3">
         <v>24200</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4">
         <v>31310</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3">
         <v>11460</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4">
         <v>28230</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3">
         <v>24680</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="4">
         <v>9990</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3">
         <v>10110</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="4">
         <v>81880</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3">
         <v>10500</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="4">
         <v>15960</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3">
         <v>39810</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="4">
         <v>36280</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="3">
         <v>8910</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="4">
         <v>17260</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="3">
         <v>6730</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="4">
         <v>19190</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="3">
         <v>12600</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="4">
         <v>37330</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="3">
         <v>39930</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="4">
         <v>30940</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="3">
         <v>35940</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="4">
         <v>68610</v>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="3">
         <v>57030</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="4">
         <v>5230</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="3">
         <v>3370</v>
@@ -1837,12 +1837,12 @@
         <v>4020</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="4">
         <v>2850</v>
@@ -1875,12 +1875,12 @@
         <v>3670</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="3">
         <v>4380</v>
